--- a/data-raw/metadata/release-metadata.xlsx
+++ b/data-raw/metadata/release-metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE7F1C7-6D59-1047-9016-A893D472509F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B680909E-90C8-F646-9503-9CCD0617E8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -266,15 +266,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,391 +663,388 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="19.6640625" style="2"/>
-    <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" style="4" customWidth="1"/>
-    <col min="14" max="1021" width="19.6640625" style="2"/>
-    <col min="1022" max="1024" width="8.33203125" style="2" customWidth="1"/>
-    <col min="1025" max="16384" width="19.6640625" style="2"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="9.1640625" style="1" customWidth="1"/>
+    <col min="1022" max="1024" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="1">
         <v>208</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="1">
         <v>1143</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="1">
         <v>33</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="1">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="1">
         <v>232</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="1">
         <v>806</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="1">
         <v>0.66</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="1">
         <v>20.399999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
         <v>39</v>
       </c>
     </row>

--- a/data-raw/metadata/release-metadata.xlsx
+++ b/data-raw/metadata/release-metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B680909E-90C8-F646-9503-9CCD0617E8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CF48A3-CEDB-FE4A-8354-2F680138157E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -212,6 +212,18 @@
   </si>
   <si>
     <t>Origin of released fish. Levels = c(NA, "hatchery")</t>
+  </si>
+  <si>
+    <t>subsite</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>Subsite of released fish.</t>
+  </si>
+  <si>
+    <t>Run identified of the fish.</t>
   </si>
 </sst>
 </file>
@@ -655,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1045,6 +1057,40 @@
         <v>53</v>
       </c>
       <c r="E14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
         <v>39</v>
       </c>
     </row>

--- a/data-raw/metadata/release-metadata.xlsx
+++ b/data-raw/metadata/release-metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CF48A3-CEDB-FE4A-8354-2F680138157E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66320FE6-8752-B748-BE7B-DCF6C6B0D9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,9 +130,6 @@
     <t>How many days the fish was held post-marking</t>
   </si>
   <si>
-    <t>Whether the release was conducted at day or night, levels = c("night", "day", NA)</t>
-  </si>
-  <si>
     <t>Temperature recorded at release</t>
   </si>
   <si>
@@ -193,27 +190,12 @@
     <t>Site location. Levels = c("Clear Creek", "Upper Battle Creek")</t>
   </si>
   <si>
-    <t>Location of release site. Levels = c("CCRB", "VB", NA)</t>
-  </si>
-  <si>
-    <t>2020-01-04</t>
-  </si>
-  <si>
     <t>2021-03-08</t>
   </si>
   <si>
     <t>hh:mm:ss</t>
   </si>
   <si>
-    <t>14:29:00</t>
-  </si>
-  <si>
-    <t>20:33:00</t>
-  </si>
-  <si>
-    <t>Origin of released fish. Levels = c(NA, "hatchery")</t>
-  </si>
-  <si>
     <t>subsite</t>
   </si>
   <si>
@@ -224,6 +206,24 @@
   </si>
   <si>
     <t>Run identified of the fish.</t>
+  </si>
+  <si>
+    <t>2003-12-03</t>
+  </si>
+  <si>
+    <t>00:07:00</t>
+  </si>
+  <si>
+    <t>24:00:00</t>
+  </si>
+  <si>
+    <t>Location of release site. Levels = c("VB", "CCRB", "P4", NA)</t>
+  </si>
+  <si>
+    <t>Whether the release was conducted at day or night, levels = c("night", "day", NA, "unknown")</t>
+  </si>
+  <si>
+    <t>Origin of released fish. Levels = c(NA, "natural", "hatchery")</t>
   </si>
 </sst>
 </file>
@@ -670,11 +670,12 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="69.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
@@ -734,16 +735,16 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
       </c>
       <c r="L2" s="3"/>
     </row>
@@ -752,16 +753,16 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -772,22 +773,22 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="L4" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -798,22 +799,22 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -824,25 +825,25 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="L6" s="1">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="M6" s="1">
         <v>1143</v>
@@ -856,25 +857,25 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L7" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="1">
         <v>88</v>
@@ -888,13 +889,13 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
         <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -905,22 +906,22 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
@@ -934,16 +935,16 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -952,31 +953,31 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="M11" s="1">
-        <v>0</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -984,31 +985,31 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L12" s="1">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="M12" s="1">
-        <v>806</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1016,82 +1017,82 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L13" s="1">
-        <v>0.66</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M13" s="1">
-        <v>20.399999999999999</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata/release-metadata.xlsx
+++ b/data-raw/metadata/release-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66320FE6-8752-B748-BE7B-DCF6C6B0D9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9270C884-C5F7-0E48-AB85-A75B8E100532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -670,7 +670,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,10 +732,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -746,31 +746,39 @@
       <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -782,79 +790,56 @@
         <v>39</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="1">
-        <v>8</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1143</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -869,33 +854,48 @@
         <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L7" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="M7" s="1">
-        <v>88</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="1">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
+      <c r="M8" s="1">
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1097,19 +1097,19 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1021" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1021 C1:C6" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1021" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E1021 E1:E6" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1021" xr:uid="{00000000-0002-0000-0800-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F1021 F1:F6" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>"ratio,interval"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{0E975802-AAEB-481A-9F6C-1EEB8BBDECAC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H1048576 H1:H6" xr:uid="{0E975802-AAEB-481A-9F6C-1EEB8BBDECAC}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data-raw/metadata/release-metadata.xlsx
+++ b/data-raw/metadata/release-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9270C884-C5F7-0E48-AB85-A75B8E100532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77070596-1E8B-DA44-A586-ACB18E9BC6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -194,18 +194,6 @@
   </si>
   <si>
     <t>hh:mm:ss</t>
-  </si>
-  <si>
-    <t>subsite</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>Subsite of released fish.</t>
-  </si>
-  <si>
-    <t>Run identified of the fish.</t>
   </si>
   <si>
     <t>2003-12-03</t>
@@ -667,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -767,7 +755,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>54</v>
@@ -793,10 +781,10 @@
         <v>55</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -804,7 +792,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -935,7 +923,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -1049,7 +1037,7 @@
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
@@ -1061,55 +1049,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1021 C1:C6" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1019" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E1021 E1:E6" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1019" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F1021 F1:F6" xr:uid="{00000000-0002-0000-0800-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1019" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>"ratio,interval"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H1048576 H1:H6" xr:uid="{0E975802-AAEB-481A-9F6C-1EEB8BBDECAC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{0E975802-AAEB-481A-9F6C-1EEB8BBDECAC}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data-raw/metadata/release-metadata.xlsx
+++ b/data-raw/metadata/release-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77070596-1E8B-DA44-A586-ACB18E9BC6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF370FB-0721-2945-B59A-283FD237DDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -187,9 +187,6 @@
     <t>release</t>
   </si>
   <si>
-    <t>Site location. Levels = c("Clear Creek", "Upper Battle Creek")</t>
-  </si>
-  <si>
     <t>2021-03-08</t>
   </si>
   <si>
@@ -205,20 +202,35 @@
     <t>24:00:00</t>
   </si>
   <si>
-    <t>Location of release site. Levels = c("VB", "CCRB", "P4", NA)</t>
-  </si>
-  <si>
     <t>Whether the release was conducted at day or night, levels = c("night", "day", NA, "unknown")</t>
   </si>
   <si>
     <t>Origin of released fish. Levels = c(NA, "natural", "hatchery")</t>
+  </si>
+  <si>
+    <t>fws_run</t>
+  </si>
+  <si>
+    <t>FWS identified run of fish recaptured</t>
+  </si>
+  <si>
+    <t>hatchery_origin</t>
+  </si>
+  <si>
+    <t>Origin of hatchery fish</t>
+  </si>
+  <si>
+    <t>Location of release site. Levels =c("vulture bar", "clear creek road bridge", "grand matthews permanent turbidity monitoring site", NA)</t>
+  </si>
+  <si>
+    <t>Site location. Levels = c("lower clear creek", "upper clear creek", "upper battle creek")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -232,6 +244,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -266,13 +284,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -755,10 +774,10 @@
         <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -778,13 +797,13 @@
         <v>39</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -792,7 +811,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -809,7 +828,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -923,7 +942,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -1037,7 +1056,7 @@
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
@@ -1046,6 +1065,40 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
         <v>38</v>
       </c>
     </row>

--- a/data-raw/metadata/release-metadata.xlsx
+++ b/data-raw/metadata/release-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/edi-battle-clear-rst/data-raw/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF370FB-0721-2945-B59A-283FD237DDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DF2E70-0D48-734F-8711-0D19DDB6E847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31640" yWindow="1700" windowWidth="28800" windowHeight="16540" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -187,21 +187,12 @@
     <t>release</t>
   </si>
   <si>
-    <t>2021-03-08</t>
-  </si>
-  <si>
     <t>hh:mm:ss</t>
   </si>
   <si>
     <t>2003-12-03</t>
   </si>
   <si>
-    <t>00:07:00</t>
-  </si>
-  <si>
-    <t>24:00:00</t>
-  </si>
-  <si>
     <t>Whether the release was conducted at day or night, levels = c("night", "day", NA, "unknown")</t>
   </si>
   <si>
@@ -224,6 +215,15 @@
   </si>
   <si>
     <t>Site location. Levels = c("lower clear creek", "upper clear creek", "upper battle creek")</t>
+  </si>
+  <si>
+    <t>2024-04-02</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>23:47:00</t>
   </si>
 </sst>
 </file>
@@ -378,9 +378,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -418,7 +418,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -524,7 +524,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -666,7 +666,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -677,7 +677,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -774,10 +774,10 @@
         <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -797,13 +797,13 @@
         <v>39</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -811,7 +811,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -828,7 +828,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -899,10 +899,10 @@
         <v>44</v>
       </c>
       <c r="L8" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -942,7 +942,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -981,10 +981,10 @@
         <v>44</v>
       </c>
       <c r="L11" s="1">
-        <v>37.700000000000003</v>
+        <v>42.3</v>
       </c>
       <c r="M11" s="1">
-        <v>62.3</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1013,7 +1013,7 @@
         <v>44</v>
       </c>
       <c r="L12" s="1">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="M12" s="1">
         <v>1650</v>
@@ -1056,7 +1056,7 @@
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
@@ -1070,10 +1070,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
         <v>51</v>

--- a/data-raw/metadata/release-metadata.xlsx
+++ b/data-raw/metadata/release-metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DF2E70-0D48-734F-8711-0D19DDB6E847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444C4A2A-C3D6-6D4C-B3B4-EE07BB66E42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31640" yWindow="1700" windowWidth="28800" windowHeight="16540" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -197,18 +197,6 @@
   </si>
   <si>
     <t>Origin of released fish. Levels = c(NA, "natural", "hatchery")</t>
-  </si>
-  <si>
-    <t>fws_run</t>
-  </si>
-  <si>
-    <t>FWS identified run of fish recaptured</t>
-  </si>
-  <si>
-    <t>hatchery_origin</t>
-  </si>
-  <si>
-    <t>Origin of hatchery fish</t>
   </si>
   <si>
     <t>Location of release site. Levels =c("vulture bar", "clear creek road bridge", "grand matthews permanent turbidity monitoring site", NA)</t>
@@ -230,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -244,12 +232,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -284,14 +266,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -777,7 +758,7 @@
         <v>54</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -800,10 +781,10 @@
         <v>53</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -811,7 +792,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -828,7 +809,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -1068,51 +1049,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1019" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1017" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1019" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1017" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1019" xr:uid="{00000000-0002-0000-0800-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1017" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>"ratio,interval"</formula1>
       <formula2>0</formula2>
     </dataValidation>
